--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\nevermore-micro-external-fan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189C7A8-C9AA-49E4-87FA-6F2157D37BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14925" yWindow="2265" windowWidth="14610" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>5015 鼓風機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓柱形磁鐵(直徑4x高6 mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3x6 BHCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3x10 SHCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一邊8顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定底座用(一邊2顆)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定至框架用(最少一邊2顆以上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一邊1個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1515型材M3固定螺母(船型螺母or彈性螺母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +411,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\nevermore-micro-external-fan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189C7A8-C9AA-49E4-87FA-6F2157D37BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2AA5C-606D-4C4D-B9FB-ABB4101F437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="2265" windowWidth="14610" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="825" windowWidth="14610" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>5015 鼓風機</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M3螺母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一邊8顆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,18 @@
   </si>
   <si>
     <t>1515型材M3固定螺母(船型螺母or彈性螺母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3熱壓螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座數量+框架數量(一邊2+6顆)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,10 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -415,13 +426,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,7 +463,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,15 +474,15 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -479,24 +490,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
